--- a/docs/lexer STD.xlsx
+++ b/docs/lexer STD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\compiler assignment\compiler\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E216EB25-8EEA-445B-AFBD-614BA27CA1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3E5214-ED28-4301-A048-5046DCECFCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3D1BC879-8A1E-42C0-A222-4C84FA46729B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3D1BC879-8A1E-42C0-A222-4C84FA46729B}"/>
   </bookViews>
   <sheets>
     <sheet name="Classifier table" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="125">
   <si>
     <t>Class</t>
   </si>
@@ -426,6 +426,18 @@
   </si>
   <si>
     <t>start</t>
+  </si>
+  <si>
+    <t>bracOpen</t>
+  </si>
+  <si>
+    <t>bracClose</t>
+  </si>
+  <si>
+    <t>curlyBracOpen</t>
+  </si>
+  <si>
+    <t>curlyBracClose</t>
   </si>
 </sst>
 </file>
@@ -764,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,10 +1139,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D8FA0B-C8DD-41CF-B72E-6DD1ADF0D158}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,6 +1344,38 @@
         <v>109</v>
       </c>
       <c r="B28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1351,19 +1395,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1093112-F7B4-4E0D-B4D3-F650519D60B8}">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W3" sqref="W3"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" customWidth="1"/>
     <col min="4" max="5" width="7.85546875" customWidth="1"/>
     <col min="6" max="6" width="8.140625" customWidth="1"/>
@@ -1462,7 +1506,7 @@
         <v>119</v>
       </c>
       <c r="B3" s="1" t="str" cm="1">
-        <f t="array" ref="B3:B29">_xlfn._xlws.FILTER(Tokens!A2:A208,LEN(Tokens!A2:A208)&lt;&gt;0)</f>
+        <f t="array" ref="B3:B33">_xlfn._xlws.FILTER(Tokens!A2:A208,LEN(Tokens!A2:A208)&lt;&gt;0)</f>
         <v>start</v>
       </c>
       <c r="C3" t="s">
@@ -1503,6 +1547,18 @@
       </c>
       <c r="P3" t="s">
         <v>114</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R3" t="s">
+        <v>122</v>
+      </c>
+      <c r="U3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -1732,6 +1788,26 @@
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="str">
         <v>addOp.Sub</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="str">
+        <v>bracOpen</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="str">
+        <v>bracClose</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="str">
+        <v>curlyBracOpen</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="str">
+        <v>curlyBracClose</v>
       </c>
     </row>
   </sheetData>

--- a/docs/lexer STD.xlsx
+++ b/docs/lexer STD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\compiler assignment\compiler\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3E5214-ED28-4301-A048-5046DCECFCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04F0DD6-2BB1-4B57-96E8-AE5311CED1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3D1BC879-8A1E-42C0-A222-4C84FA46729B}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="123">
   <si>
     <t>Class</t>
   </si>
@@ -383,45 +383,15 @@
     <t>word</t>
   </si>
   <si>
-    <t>mulOp.Mul</t>
-  </si>
-  <si>
-    <t>mulOp.Div</t>
-  </si>
-  <si>
-    <t>addOp.Add</t>
-  </si>
-  <si>
-    <t>addOp.Sub</t>
-  </si>
-  <si>
     <t>Slash</t>
   </si>
   <si>
-    <t>relop.GT</t>
-  </si>
-  <si>
-    <t>relop.LT</t>
-  </si>
-  <si>
     <t>equals</t>
   </si>
   <si>
     <t>exclamation</t>
   </si>
   <si>
-    <t>relop.EQ</t>
-  </si>
-  <si>
-    <t>relop.NE</t>
-  </si>
-  <si>
-    <t>relop.GTE</t>
-  </si>
-  <si>
-    <t>relop.LTE</t>
-  </si>
-  <si>
     <t>STATE</t>
   </si>
   <si>
@@ -438,6 +408,30 @@
   </si>
   <si>
     <t>curlyBracClose</t>
+  </si>
+  <si>
+    <t>multiply</t>
+  </si>
+  <si>
+    <t>divide</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>subtract</t>
+  </si>
+  <si>
+    <t>EQ</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>GTE</t>
+  </si>
+  <si>
+    <t>LTE</t>
   </si>
 </sst>
 </file>
@@ -776,7 +770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1028,7 +1022,7 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
         <v>61</v>
@@ -1142,7 +1136,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A24" sqref="A1:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1157,7 @@
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1253,7 +1247,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -1261,7 +1255,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -1269,7 +1263,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
@@ -1277,7 +1271,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
@@ -1285,7 +1279,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -1293,7 +1287,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
@@ -1301,7 +1295,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
@@ -1309,7 +1303,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
@@ -1317,7 +1311,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
@@ -1325,7 +1319,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
@@ -1333,7 +1327,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
@@ -1341,7 +1335,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
@@ -1349,7 +1343,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
@@ -1357,7 +1351,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
@@ -1365,7 +1359,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s">
         <v>53</v>
@@ -1373,7 +1367,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
@@ -1397,11 +1391,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1093112-F7B4-4E0D-B4D3-F650519D60B8}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1497,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="str" cm="1">
         <f t="array" ref="B3:B33">_xlfn._xlws.FILTER(Tokens!A2:A208,LEN(Tokens!A2:A208)&lt;&gt;0)</f>
@@ -1525,40 +1519,40 @@
         <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" t="s">
         <v>107</v>
       </c>
-      <c r="K3" t="s">
+      <c r="P3" t="s">
         <v>108</v>
       </c>
-      <c r="L3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="Q3" t="s">
         <v>111</v>
       </c>
-      <c r="N3" t="s">
+      <c r="R3" t="s">
         <v>112</v>
       </c>
-      <c r="O3" t="s">
+      <c r="U3" t="s">
         <v>113</v>
       </c>
-      <c r="P3" t="s">
+      <c r="V3" t="s">
         <v>114</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>121</v>
-      </c>
-      <c r="R3" t="s">
-        <v>122</v>
-      </c>
-      <c r="U3" t="s">
-        <v>123</v>
-      </c>
-      <c r="V3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -1723,7 +1717,7 @@
         <v>equals</v>
       </c>
       <c r="O18" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
@@ -1731,63 +1725,63 @@
         <v>exclamation</v>
       </c>
       <c r="O19" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="str">
-        <v>relop.GT</v>
+        <v>GT</v>
       </c>
       <c r="O20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="str">
-        <v>relop.LT</v>
+        <v>LT</v>
       </c>
       <c r="O21" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="str">
-        <v>relop.EQ</v>
+        <v>EQ</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="str">
-        <v>relop.NE</v>
+        <v>NE</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="str">
-        <v>relop.GTE</v>
+        <v>GTE</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="str">
-        <v>relop.LTE</v>
+        <v>LTE</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="str">
-        <v>mulOp.Mul</v>
+        <v>multiply</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="str">
-        <v>mulOp.Div</v>
+        <v>divide</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="str">
-        <v>addOp.Add</v>
+        <v>add</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="str">
-        <v>addOp.Sub</v>
+        <v>subtract</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
@@ -1824,7 +1818,7 @@
           <x14:formula1>
             <xm:f>Tokens!$A$2:$A$208</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:XFD4 C6:XFD1048576 I5:XFD5 C5:G5</xm:sqref>
+          <xm:sqref>C3:XFD4 C5:G5 I5:XFD5 C6:XFD1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/docs/lexer STD.xlsx
+++ b/docs/lexer STD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\compiler assignment\compiler\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wayne\Desktop\cps2000 compiler\CPS2000-compiler\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04F0DD6-2BB1-4B57-96E8-AE5311CED1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DE4E3A-B201-4C35-A45A-130A147EAB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3D1BC879-8A1E-42C0-A222-4C84FA46729B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{3D1BC879-8A1E-42C0-A222-4C84FA46729B}"/>
   </bookViews>
   <sheets>
     <sheet name="Classifier table" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="DSA" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tokens!$A$1:$B$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tokens!$A$1:$B$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="128">
   <si>
     <t>Class</t>
   </si>
@@ -432,6 +432,21 @@
   </si>
   <si>
     <t>LTE</t>
+  </si>
+  <si>
+    <t>semiColon</t>
+  </si>
+  <si>
+    <t>colon</t>
+  </si>
+  <si>
+    <t>Comma</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>comma</t>
   </si>
 </sst>
 </file>
@@ -768,18 +783,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -787,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -822,7 +837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -863,7 +878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -988,7 +1003,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -996,7 +1011,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1004,7 +1019,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1012,7 +1027,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -1020,7 +1035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -1028,7 +1043,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1036,7 +1051,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -1044,7 +1059,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -1052,7 +1067,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -1060,7 +1075,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -1068,7 +1083,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1076,7 +1091,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -1084,7 +1099,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1092,7 +1107,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -1100,7 +1115,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -1108,7 +1123,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1116,12 +1131,20 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1132,19 +1155,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D8FA0B-C8DD-41CF-B72E-6DD1ADF0D158}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A1:E32"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -1155,22 +1177,22 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -1178,7 +1200,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1186,12 +1208,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1199,37 +1221,37 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -1237,7 +1259,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -1245,7 +1267,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -1253,7 +1275,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -1261,7 +1283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -1269,7 +1291,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -1277,7 +1299,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -1285,7 +1307,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -1293,7 +1315,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -1301,7 +1323,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -1309,7 +1331,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -1317,7 +1339,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -1325,7 +1347,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>117</v>
       </c>
@@ -1333,7 +1355,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -1341,7 +1363,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -1349,7 +1371,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -1357,7 +1379,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -1365,7 +1387,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -1373,14 +1395,32 @@
         <v>53</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B28" xr:uid="{40D8FA0B-C8DD-41CF-B72E-6DD1ADF0D158}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B32" xr:uid="{40D8FA0B-C8DD-41CF-B72E-6DD1ADF0D158}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1389,38 +1429,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1093112-F7B4-4E0D-B4D3-F650519D60B8}">
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:W36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
-    <col min="4" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="4" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
     <col min="8" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1432,9 +1472,9 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="str" cm="1">
-        <f t="array" ref="C2:V2">TRANSPOSE(_xlfn._xlws.FILTER('Classifier table'!A2:A200,LEN('Classifier table'!A2:A200)&lt;&gt;0))</f>
+        <f t="array" ref="C2:W2">TRANSPOSE(_xlfn._xlws.FILTER('Classifier table'!A2:A200,LEN('Classifier table'!A2:A200)&lt;&gt;0))</f>
         <v>Digit</v>
       </c>
       <c r="D2" s="1" t="str">
@@ -1494,13 +1534,16 @@
       <c r="V2" s="1" t="str">
         <v>CurlyBracketClose</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W2" s="1" t="str">
+        <v>Comma</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B3" s="1" t="str" cm="1">
-        <f t="array" ref="B3:B33">_xlfn._xlws.FILTER(Tokens!A2:A208,LEN(Tokens!A2:A208)&lt;&gt;0)</f>
+        <f t="array" ref="B3:B36">_xlfn._xlws.FILTER(Tokens!A2:A208,LEN(Tokens!A2:A208)&lt;&gt;0)</f>
         <v>start</v>
       </c>
       <c r="C3" t="s">
@@ -1548,14 +1591,23 @@
       <c r="R3" t="s">
         <v>112</v>
       </c>
+      <c r="S3" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3" t="s">
+        <v>123</v>
+      </c>
       <c r="U3" t="s">
         <v>113</v>
       </c>
       <c r="V3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="str">
         <v>under1</v>
@@ -1564,7 +1616,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="str">
         <v>under2</v>
@@ -1576,7 +1628,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="str">
         <v>sysFunc</v>
@@ -1588,7 +1640,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="str">
         <v>int</v>
@@ -1600,7 +1652,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="str">
         <v>intPoint</v>
@@ -1609,7 +1661,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="str">
         <v>float</v>
@@ -1618,7 +1670,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="str">
         <v>pound</v>
@@ -1630,7 +1682,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="str">
         <v>hex1</v>
@@ -1642,7 +1694,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="str">
         <v>hex2</v>
@@ -1654,7 +1706,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="str">
         <v>hex3</v>
@@ -1666,7 +1718,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="str">
         <v>hex4</v>
@@ -1678,7 +1730,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="str">
         <v>hex5</v>
@@ -1690,12 +1742,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="str">
         <v>colour</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="str">
         <v>word</v>
       </c>
@@ -1712,7 +1764,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="str">
         <v>equals</v>
       </c>
@@ -1720,7 +1772,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="str">
         <v>exclamation</v>
       </c>
@@ -1728,7 +1780,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="str">
         <v>GT</v>
       </c>
@@ -1736,7 +1788,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="str">
         <v>LT</v>
       </c>
@@ -1744,64 +1796,79 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="str">
         <v>EQ</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="str">
         <v>NE</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="str">
         <v>GTE</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="str">
         <v>LTE</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="str">
         <v>multiply</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="str">
         <v>divide</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="str">
         <v>add</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="str">
         <v>subtract</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="str">
         <v>bracOpen</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="str">
         <v>bracClose</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="str">
         <v>curlyBracOpen</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="str">
         <v>curlyBracClose</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="str">
+        <v>semiColon</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="str">
+        <v>colon</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="str">
+        <v>comma</v>
       </c>
     </row>
   </sheetData>

--- a/docs/lexer STD.xlsx
+++ b/docs/lexer STD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wayne\Desktop\cps2000 compiler\CPS2000-compiler\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\compiler assignment\compiler\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DE4E3A-B201-4C35-A45A-130A147EAB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB362937-616F-4AFA-A340-A6AC58551388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{3D1BC879-8A1E-42C0-A222-4C84FA46729B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3D1BC879-8A1E-42C0-A222-4C84FA46729B}"/>
   </bookViews>
   <sheets>
     <sheet name="Classifier table" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="129">
   <si>
     <t>Class</t>
   </si>
@@ -447,6 +447,9 @@
   </si>
   <si>
     <t>comma</t>
+  </si>
+  <si>
+    <t>arrow</t>
   </si>
 </sst>
 </file>
@@ -789,12 +792,12 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -837,7 +840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -878,7 +881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1011,7 +1014,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -1043,7 +1046,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1051,7 +1054,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -1059,7 +1062,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -1067,7 +1070,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -1075,7 +1078,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1091,7 +1094,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -1139,7 +1142,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -1155,18 +1158,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D8FA0B-C8DD-41CF-B72E-6DD1ADF0D158}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -1177,22 +1180,22 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1208,12 +1211,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1221,37 +1224,37 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -1267,7 +1270,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -1275,7 +1278,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -1307,7 +1310,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -1331,7 +1334,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>117</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -1371,7 +1374,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -1379,7 +1382,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>124</v>
       </c>
@@ -1411,11 +1414,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>127</v>
       </c>
       <c r="B35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1429,38 +1440,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1093112-F7B4-4E0D-B4D3-F650519D60B8}">
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:W36"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" customWidth="1"/>
-    <col min="4" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="4" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
     <col min="8" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1483,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="str" cm="1">
         <f t="array" ref="C2:W2">TRANSPOSE(_xlfn._xlws.FILTER('Classifier table'!A2:A200,LEN('Classifier table'!A2:A200)&lt;&gt;0))</f>
         <v>Digit</v>
@@ -1538,12 +1549,12 @@
         <v>Comma</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B3" s="1" t="str" cm="1">
-        <f t="array" ref="B3:B36">_xlfn._xlws.FILTER(Tokens!A2:A208,LEN(Tokens!A2:A208)&lt;&gt;0)</f>
+        <f t="array" ref="B3:B37">_xlfn._xlws.FILTER(Tokens!A2:A208,LEN(Tokens!A2:A208)&lt;&gt;0)</f>
         <v>start</v>
       </c>
       <c r="C3" t="s">
@@ -1607,7 +1618,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="str">
         <v>under1</v>
@@ -1616,7 +1627,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="str">
         <v>under2</v>
@@ -1628,7 +1639,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="str">
         <v>sysFunc</v>
@@ -1640,7 +1651,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="str">
         <v>int</v>
@@ -1652,7 +1663,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="str">
         <v>intPoint</v>
@@ -1661,7 +1672,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="str">
         <v>float</v>
@@ -1670,7 +1681,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="str">
         <v>pound</v>
@@ -1682,7 +1693,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="str">
         <v>hex1</v>
@@ -1694,7 +1705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="str">
         <v>hex2</v>
@@ -1706,7 +1717,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="str">
         <v>hex3</v>
@@ -1718,7 +1729,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="str">
         <v>hex4</v>
@@ -1730,7 +1741,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="str">
         <v>hex5</v>
@@ -1742,12 +1753,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="str">
         <v>colour</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="str">
         <v>word</v>
       </c>
@@ -1764,7 +1775,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="str">
         <v>equals</v>
       </c>
@@ -1772,7 +1783,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="str">
         <v>exclamation</v>
       </c>
@@ -1780,7 +1791,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="str">
         <v>GT</v>
       </c>
@@ -1788,7 +1799,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="str">
         <v>LT</v>
       </c>
@@ -1796,79 +1807,87 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="str">
         <v>EQ</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="str">
         <v>NE</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="str">
         <v>GTE</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="str">
         <v>LTE</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="str">
         <v>multiply</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="str">
         <v>divide</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="str">
         <v>add</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="str">
         <v>subtract</v>
       </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="str">
         <v>bracOpen</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="str">
         <v>bracClose</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="str">
         <v>curlyBracOpen</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="str">
         <v>curlyBracClose</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="str">
         <v>semiColon</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="str">
         <v>colon</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="str">
         <v>comma</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="str">
+        <v>arrow</v>
       </c>
     </row>
   </sheetData>

--- a/docs/lexer STD.xlsx
+++ b/docs/lexer STD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\compiler assignment\compiler\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wayne\Desktop\cps2000 compiler\CPS2000-compiler\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB362937-616F-4AFA-A340-A6AC58551388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926E19E3-0A54-40D7-A0A6-A58D788185AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3D1BC879-8A1E-42C0-A222-4C84FA46729B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D1BC879-8A1E-42C0-A222-4C84FA46729B}"/>
   </bookViews>
   <sheets>
     <sheet name="Classifier table" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="135">
   <si>
     <t>Class</t>
   </si>
@@ -450,6 +450,24 @@
   </si>
   <si>
     <t>arrow</t>
+  </si>
+  <si>
+    <t>NewLine</t>
+  </si>
+  <si>
+    <t>singeLineComment</t>
+  </si>
+  <si>
+    <t>multiLineComment</t>
+  </si>
+  <si>
+    <t>WhiteSpace</t>
+  </si>
+  <si>
+    <t>\r\f\n</t>
+  </si>
+  <si>
+    <t>Character.isWhitespace(c)</t>
   </si>
 </sst>
 </file>
@@ -497,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -506,6 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,18 +805,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -840,7 +859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -881,7 +900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -1006,7 +1025,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1014,7 +1033,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1022,7 +1041,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1030,7 +1049,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -1038,7 +1057,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -1046,7 +1065,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1054,7 +1073,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -1062,7 +1081,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -1070,7 +1089,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -1078,7 +1097,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -1086,7 +1105,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1094,7 +1113,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -1102,7 +1121,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1110,7 +1129,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -1118,7 +1137,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -1126,7 +1145,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1134,7 +1153,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -1142,7 +1161,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -1150,7 +1169,31 @@
         <v>126</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B24:G24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1158,18 +1201,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D8FA0B-C8DD-41CF-B72E-6DD1ADF0D158}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -1180,22 +1223,22 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -1203,7 +1246,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1211,12 +1254,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1224,37 +1267,37 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -1262,7 +1305,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -1270,7 +1313,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -1278,7 +1321,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -1286,7 +1329,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -1294,7 +1337,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -1302,7 +1345,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -1310,7 +1353,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -1318,7 +1361,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -1326,7 +1369,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -1334,7 +1377,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -1342,7 +1385,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -1350,7 +1393,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>117</v>
       </c>
@@ -1358,7 +1401,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -1366,7 +1409,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -1374,7 +1417,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -1382,7 +1425,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -1390,7 +1433,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -1398,7 +1441,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -1406,7 +1449,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>124</v>
       </c>
@@ -1414,7 +1457,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>127</v>
       </c>
@@ -1422,11 +1465,27 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>128</v>
       </c>
       <c r="B36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1440,38 +1499,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1093112-F7B4-4E0D-B4D3-F650519D60B8}">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
-    <col min="4" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="4" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
     <col min="8" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1483,9 +1542,9 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="str" cm="1">
-        <f t="array" ref="C2:W2">TRANSPOSE(_xlfn._xlws.FILTER('Classifier table'!A2:A200,LEN('Classifier table'!A2:A200)&lt;&gt;0))</f>
+        <f t="array" ref="C2:Y2">TRANSPOSE(_xlfn._xlws.FILTER('Classifier table'!A2:A200,LEN('Classifier table'!A2:A200)&lt;&gt;0))</f>
         <v>Digit</v>
       </c>
       <c r="D2" s="1" t="str">
@@ -1548,13 +1607,19 @@
       <c r="W2" s="1" t="str">
         <v>Comma</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" s="1" t="str">
+        <v>NewLine</v>
+      </c>
+      <c r="Y2" s="1" t="str">
+        <v>WhiteSpace</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B3" s="1" t="str" cm="1">
-        <f t="array" ref="B3:B37">_xlfn._xlws.FILTER(Tokens!A2:A208,LEN(Tokens!A2:A208)&lt;&gt;0)</f>
+        <f t="array" ref="B3:B39">_xlfn._xlws.FILTER(Tokens!A2:A208,LEN(Tokens!A2:A208)&lt;&gt;0)</f>
         <v>start</v>
       </c>
       <c r="C3" t="s">
@@ -1618,7 +1683,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="str">
         <v>under1</v>
@@ -1627,7 +1692,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="str">
         <v>under2</v>
@@ -1639,7 +1704,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="str">
         <v>sysFunc</v>
@@ -1651,7 +1716,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="str">
         <v>int</v>
@@ -1663,7 +1728,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="str">
         <v>intPoint</v>
@@ -1672,7 +1737,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="str">
         <v>float</v>
@@ -1681,7 +1746,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="str">
         <v>pound</v>
@@ -1693,7 +1758,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="str">
         <v>hex1</v>
@@ -1705,7 +1770,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="str">
         <v>hex2</v>
@@ -1717,7 +1782,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="str">
         <v>hex3</v>
@@ -1729,7 +1794,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="str">
         <v>hex4</v>
@@ -1741,7 +1806,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="str">
         <v>hex5</v>
@@ -1753,12 +1818,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="str">
         <v>colour</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="str">
         <v>word</v>
       </c>
@@ -1775,7 +1840,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="str">
         <v>equals</v>
       </c>
@@ -1783,7 +1848,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="str">
         <v>exclamation</v>
       </c>
@@ -1791,7 +1856,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="str">
         <v>GT</v>
       </c>
@@ -1799,7 +1864,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="str">
         <v>LT</v>
       </c>
@@ -1807,42 +1872,42 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="str">
         <v>EQ</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="str">
         <v>NE</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="str">
         <v>GTE</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="str">
         <v>LTE</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="str">
         <v>multiply</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="str">
         <v>divide</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="str">
         <v>add</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="str">
         <v>subtract</v>
       </c>
@@ -1850,44 +1915,54 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="str">
         <v>bracOpen</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="str">
         <v>bracClose</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="str">
         <v>curlyBracOpen</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="str">
         <v>curlyBracClose</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="str">
         <v>semiColon</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="str">
         <v>colon</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="str">
         <v>comma</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="str">
         <v>arrow</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="str">
+        <v>singeLineComment</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="str">
+        <v>multiLineComment</v>
       </c>
     </row>
   </sheetData>

--- a/docs/lexer STD.xlsx
+++ b/docs/lexer STD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wayne\Desktop\cps2000 compiler\CPS2000-compiler\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\compiler assignment\compiler\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926E19E3-0A54-40D7-A0A6-A58D788185AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7389D13-5F07-45A1-845D-F4727C97308C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D1BC879-8A1E-42C0-A222-4C84FA46729B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{3D1BC879-8A1E-42C0-A222-4C84FA46729B}"/>
   </bookViews>
   <sheets>
     <sheet name="Classifier table" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="138">
   <si>
     <t>Class</t>
   </si>
@@ -455,9 +455,6 @@
     <t>NewLine</t>
   </si>
   <si>
-    <t>singeLineComment</t>
-  </si>
-  <si>
     <t>multiLineComment</t>
   </si>
   <si>
@@ -468,6 +465,18 @@
   </si>
   <si>
     <t>Character.isWhitespace(c)</t>
+  </si>
+  <si>
+    <t>multiLineCommentStart</t>
+  </si>
+  <si>
+    <t>multiLineCommentMid</t>
+  </si>
+  <si>
+    <t>multiLineCommentAsterisk</t>
+  </si>
+  <si>
+    <t>singleLineComment</t>
   </si>
 </sst>
 </file>
@@ -518,13 +527,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,16 +816,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -859,7 +868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -900,7 +909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -1025,7 +1034,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1033,7 +1042,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1041,7 +1050,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1049,7 +1058,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -1057,7 +1066,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -1065,7 +1074,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1073,7 +1082,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -1081,7 +1090,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -1089,7 +1098,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -1097,7 +1106,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -1105,7 +1114,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1113,7 +1122,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -1121,7 +1130,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1129,7 +1138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -1137,7 +1146,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -1145,7 +1154,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1153,7 +1162,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -1161,7 +1170,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -1169,26 +1178,26 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>129</v>
       </c>
       <c r="B23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1201,18 +1210,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D8FA0B-C8DD-41CF-B72E-6DD1ADF0D158}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -1223,22 +1232,22 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -1246,7 +1255,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1254,12 +1263,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1267,37 +1276,37 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -1305,7 +1314,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -1313,7 +1322,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -1321,7 +1330,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -1329,7 +1338,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -1337,7 +1346,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -1345,7 +1354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -1353,7 +1362,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -1361,7 +1370,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -1369,7 +1378,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -1377,7 +1386,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -1385,7 +1394,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -1393,7 +1402,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>117</v>
       </c>
@@ -1401,7 +1410,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -1409,7 +1418,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -1417,7 +1426,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -1433,7 +1442,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -1441,7 +1450,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -1449,7 +1458,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>124</v>
       </c>
@@ -1457,7 +1466,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>127</v>
       </c>
@@ -1465,7 +1474,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>128</v>
       </c>
@@ -1473,19 +1482,34 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>130</v>
       </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="B41" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1499,50 +1523,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1093112-F7B4-4E0D-B4D3-F650519D60B8}">
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" customWidth="1"/>
-    <col min="4" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
     <col min="8" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="str" cm="1">
         <f t="array" ref="C2:Y2">TRANSPOSE(_xlfn._xlws.FILTER('Classifier table'!A2:A200,LEN('Classifier table'!A2:A200)&lt;&gt;0))</f>
         <v>Digit</v>
@@ -1614,12 +1638,12 @@
         <v>WhiteSpace</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B3" s="1" t="str" cm="1">
-        <f t="array" ref="B3:B39">_xlfn._xlws.FILTER(Tokens!A2:A208,LEN(Tokens!A2:A208)&lt;&gt;0)</f>
+        <f t="array" ref="B3:B42">_xlfn._xlws.FILTER(Tokens!A2:A208,LEN(Tokens!A2:A208)&lt;&gt;0)</f>
         <v>start</v>
       </c>
       <c r="C3" t="s">
@@ -1683,8 +1707,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="str">
         <v>under1</v>
       </c>
@@ -1692,8 +1716,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="str">
         <v>under2</v>
       </c>
@@ -1704,8 +1728,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
       <c r="B6" s="1" t="str">
         <v>sysFunc</v>
       </c>
@@ -1716,8 +1740,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="str">
         <v>int</v>
       </c>
@@ -1728,8 +1752,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
       <c r="B8" s="1" t="str">
         <v>intPoint</v>
       </c>
@@ -1737,8 +1761,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
       <c r="B9" s="1" t="str">
         <v>float</v>
       </c>
@@ -1746,8 +1770,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
       <c r="B10" s="1" t="str">
         <v>pound</v>
       </c>
@@ -1758,8 +1782,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
       <c r="B11" s="1" t="str">
         <v>hex1</v>
       </c>
@@ -1770,8 +1794,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
       <c r="B12" s="1" t="str">
         <v>hex2</v>
       </c>
@@ -1782,8 +1806,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
       <c r="B13" s="1" t="str">
         <v>hex3</v>
       </c>
@@ -1794,8 +1818,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
       <c r="B14" s="1" t="str">
         <v>hex4</v>
       </c>
@@ -1806,8 +1830,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
       <c r="B15" s="1" t="str">
         <v>hex5</v>
       </c>
@@ -1818,12 +1842,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="str">
         <v>colour</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="str">
         <v>word</v>
       </c>
@@ -1840,7 +1864,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="str">
         <v>equals</v>
       </c>
@@ -1848,7 +1872,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="str">
         <v>exclamation</v>
       </c>
@@ -1856,7 +1880,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="str">
         <v>GT</v>
       </c>
@@ -1864,7 +1888,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="str">
         <v>LT</v>
       </c>
@@ -1872,42 +1896,48 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="str">
         <v>EQ</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="str">
         <v>NE</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="str">
         <v>GTE</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="str">
         <v>LTE</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="str">
         <v>multiply</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="str">
         <v>divide</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="str">
         <v>add</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="str">
         <v>subtract</v>
       </c>
@@ -1915,53 +1945,356 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="str">
         <v>bracOpen</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="str">
         <v>bracClose</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="str">
         <v>curlyBracOpen</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="str">
         <v>curlyBracClose</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="str">
         <v>semiColon</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="str">
         <v>colon</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="str">
         <v>comma</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="str">
         <v>arrow</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="str">
-        <v>singeLineComment</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+        <v>singleLineComment</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" t="s">
+        <v>137</v>
+      </c>
+      <c r="G38" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" t="s">
+        <v>137</v>
+      </c>
+      <c r="J38" t="s">
+        <v>137</v>
+      </c>
+      <c r="K38" t="s">
+        <v>137</v>
+      </c>
+      <c r="L38" t="s">
+        <v>137</v>
+      </c>
+      <c r="M38" t="s">
+        <v>137</v>
+      </c>
+      <c r="N38" t="s">
+        <v>137</v>
+      </c>
+      <c r="O38" t="s">
+        <v>137</v>
+      </c>
+      <c r="P38" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>137</v>
+      </c>
+      <c r="R38" t="s">
+        <v>137</v>
+      </c>
+      <c r="S38" t="s">
+        <v>137</v>
+      </c>
+      <c r="T38" t="s">
+        <v>137</v>
+      </c>
+      <c r="U38" t="s">
+        <v>137</v>
+      </c>
+      <c r="V38" t="s">
+        <v>137</v>
+      </c>
+      <c r="W38" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="str">
+        <v>multiLineCommentStart</v>
+      </c>
+      <c r="C39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" t="s">
+        <v>135</v>
+      </c>
+      <c r="H39" t="s">
+        <v>135</v>
+      </c>
+      <c r="I39" t="s">
+        <v>136</v>
+      </c>
+      <c r="J39" t="s">
+        <v>135</v>
+      </c>
+      <c r="K39" t="s">
+        <v>135</v>
+      </c>
+      <c r="L39" t="s">
+        <v>135</v>
+      </c>
+      <c r="M39" t="s">
+        <v>135</v>
+      </c>
+      <c r="N39" t="s">
+        <v>135</v>
+      </c>
+      <c r="O39" t="s">
+        <v>135</v>
+      </c>
+      <c r="P39" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>135</v>
+      </c>
+      <c r="R39" t="s">
+        <v>135</v>
+      </c>
+      <c r="S39" t="s">
+        <v>135</v>
+      </c>
+      <c r="T39" t="s">
+        <v>135</v>
+      </c>
+      <c r="U39" t="s">
+        <v>135</v>
+      </c>
+      <c r="V39" t="s">
+        <v>135</v>
+      </c>
+      <c r="W39" t="s">
+        <v>135</v>
+      </c>
+      <c r="X39" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="str">
+        <v>multiLineCommentMid</v>
+      </c>
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" t="s">
+        <v>135</v>
+      </c>
+      <c r="I40" t="s">
+        <v>136</v>
+      </c>
+      <c r="J40" t="s">
+        <v>135</v>
+      </c>
+      <c r="K40" t="s">
+        <v>135</v>
+      </c>
+      <c r="L40" t="s">
+        <v>135</v>
+      </c>
+      <c r="M40" t="s">
+        <v>135</v>
+      </c>
+      <c r="N40" t="s">
+        <v>135</v>
+      </c>
+      <c r="O40" t="s">
+        <v>135</v>
+      </c>
+      <c r="P40" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>135</v>
+      </c>
+      <c r="R40" t="s">
+        <v>135</v>
+      </c>
+      <c r="S40" t="s">
+        <v>135</v>
+      </c>
+      <c r="T40" t="s">
+        <v>135</v>
+      </c>
+      <c r="U40" t="s">
+        <v>135</v>
+      </c>
+      <c r="V40" t="s">
+        <v>135</v>
+      </c>
+      <c r="W40" t="s">
+        <v>135</v>
+      </c>
+      <c r="X40" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="str">
+        <v>multiLineCommentAsterisk</v>
+      </c>
+      <c r="C41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" t="s">
+        <v>135</v>
+      </c>
+      <c r="I41" t="s">
+        <v>136</v>
+      </c>
+      <c r="J41" t="s">
+        <v>130</v>
+      </c>
+      <c r="K41" t="s">
+        <v>135</v>
+      </c>
+      <c r="L41" t="s">
+        <v>135</v>
+      </c>
+      <c r="M41" t="s">
+        <v>135</v>
+      </c>
+      <c r="N41" t="s">
+        <v>135</v>
+      </c>
+      <c r="O41" t="s">
+        <v>135</v>
+      </c>
+      <c r="P41" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>135</v>
+      </c>
+      <c r="R41" t="s">
+        <v>135</v>
+      </c>
+      <c r="S41" t="s">
+        <v>135</v>
+      </c>
+      <c r="T41" t="s">
+        <v>135</v>
+      </c>
+      <c r="U41" t="s">
+        <v>135</v>
+      </c>
+      <c r="V41" t="s">
+        <v>135</v>
+      </c>
+      <c r="W41" t="s">
+        <v>135</v>
+      </c>
+      <c r="X41" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="str">
         <v>multiLineComment</v>
       </c>
     </row>
